--- a/samples/order_import_sample.xlsx
+++ b/samples/order_import_sample.xlsx
@@ -100,7 +100,7 @@
     <t xml:space="preserve">212.245.2100</t>
   </si>
   <si>
-    <t xml:space="preserve">test-sku-1</t>
+    <t xml:space="preserve">test-sku-6</t>
   </si>
   <si>
     <t xml:space="preserve">Damaged in Transit|Hardware Fault</t>
@@ -109,10 +109,10 @@
     <t xml:space="preserve">true</t>
   </si>
   <si>
-    <t xml:space="preserve">test-sku-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test-sku-3</t>
+    <t xml:space="preserve">test-sku-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test-sku-8</t>
   </si>
 </sst>
 </file>
@@ -128,6 +128,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -216,19 +217,19 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.41"/>
@@ -294,7 +295,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>123456</v>
+        <v>323456</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>17</v>
@@ -347,7 +348,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>123456</v>
+        <v>323456</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>29</v>
@@ -358,7 +359,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>123456</v>
+        <v>323456</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>30</v>
